--- a/数据整理/stocks/港股/00688-中国海外发展.xlsx
+++ b/数据整理/stocks/港股/00688-中国海外发展.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,20 +550,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>008954</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>安信价值回报三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7593</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>900008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>中信证券稳健回报混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.24</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>009880</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>安信成长动力一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009880</t>
+          <t>008809</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信成长动力一年持有期混合</t>
+          <t>安信民稳增长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006816</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数A</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006817</t>
+          <t>900078</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康中证港股通地产指数C</t>
+          <t>中信证券稳健回报混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>008891</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>安信价值成长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008891</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信价值成长混合A</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>3.22</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008954</t>
+          <t>006816</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合A</t>
+          <t>泰康中证港股通地产指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010667</t>
+          <t>006817</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>安信价值回报三年持有期混合C</t>
+          <t>泰康中证港股通地产指数C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.14</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>900008</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1070,26 +1280,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>900078</t>
+          <t>010667</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>87.09</t>
-        </is>
-      </c>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00688-中国海外发展.xlsx
+++ b/数据整理/stocks/港股/00688-中国海外发展.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1288,7 +1289,6 @@
           <t>安信价值回报三年持有期混合C</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>89.14</t>
@@ -1304,6 +1304,516 @@
       </c>
       <c r="H19" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9860</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00688-中国海外发展.xlsx
+++ b/数据整理/stocks/港股/00688-中国海外发展.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1819,4 +1820,856 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2906</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3254</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00688-中国海外发展.xlsx
+++ b/数据整理/stocks/港股/00688-中国海外发展.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2672,4 +2673,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00688-中国海外发展.xlsx
+++ b/数据整理/stocks/港股/00688-中国海外发展.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2681,7 +2682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2692,17 +2693,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2712,14 +2733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.45</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2728,14 +2771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.98</v>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5827</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2744,14 +2809,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.78</v>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2760,13 +2847,985 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5632</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00688-中国海外发展.xlsx
+++ b/数据整理/stocks/港股/00688-中国海外发展.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3724,7 +3725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3735,17 +3736,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3755,14 +3776,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.09</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3771,14 +3814,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.45</v>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3787,14 +3852,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.98</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6639</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3803,14 +3890,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.78</v>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3819,13 +3928,1649 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8330</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7515</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6993</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6464</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4683</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>44.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00688-中国海外发展.xlsx
+++ b/数据整理/stocks/港股/00688-中国海外发展.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5453,7 +5454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5464,17 +5465,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5484,14 +5505,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.48</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5500,14 +5543,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.09</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5516,14 +5581,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.45</v>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5532,14 +5619,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.98</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5548,14 +5657,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.78</v>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -5564,13 +5695,1931 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6175</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3667</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3255</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00688-中国海外发展.xlsx
+++ b/数据整理/stocks/港股/00688-中国海外发展.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>29.8</v>
+        <v>35.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>17.48</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>12.09</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>10.45</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>6.98</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>5.78</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,3970 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.1223</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>113.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9889</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9162</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012609</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6401</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5303</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4901</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4475</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012610</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信稳健汇利一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010713</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012993</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010712</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中欧瑾利混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012994</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>38.51</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2631,7 +6612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4359,7 +8340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5401,7 +9382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6253,7 +10234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6763,7 +10744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7496,7 +11477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00688-中国海外发展.xlsx
+++ b/数据整理/stocks/港股/00688-中国海外发展.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>35.43</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>29.8</v>
+        <v>35.43</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>17.48</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>12.09</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>10.45</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>6.98</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>5.78</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,162 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006816</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006817</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通地产指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +766,2948 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>116.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.4764</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.0881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7567</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红沪港深混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7704</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012256</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6999</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6972</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5657</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5557</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5416</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4446</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013294</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3587</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015979</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信恒鑫增强债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012702</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2963</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012250</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012251</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信平衡增利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012701</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信民安回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011562</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富稳健盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012257</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信丰穗一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012993</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010870</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富稳健鑫添益六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013295</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方红智选三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011118</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富稳健睿选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011119</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富稳健睿选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012952</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富鑫享添利六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012951</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富鑫享添利六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016313</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012994</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富品牌力一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4580,7 +7671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6612,7 +9703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8340,7 +11431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9382,7 +12473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10234,7 +13325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10744,7 +13835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11475,136 +14566,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006816</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006817</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通地产指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>